--- a/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
+++ b/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKichabi\app-designer\app\config\tables\geo_unit\forms\geo_unit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="7180" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="13277" yWindow="7183" windowWidth="25363" windowHeight="15823" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>comments</t>
   </si>
@@ -200,12 +205,42 @@
   </si>
   <si>
     <t>Enter the name of the veo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">locked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unverifiedUserCanCreate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">defaultAccessOnCreation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>"true"</t>
+  </si>
+  <si>
+    <t>"false"</t>
+  </si>
+  <si>
+    <t>"READ_ONLY"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -723,21 +758,21 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="3" width="11.3046875" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" customWidth="1"/>
+    <col min="5" max="5" width="25.15234375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="7" max="8" width="53.4609375" customWidth="1"/>
+    <col min="9" max="9" width="14.3046875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="1023" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.3046875" customWidth="1"/>
+    <col min="12" max="1023" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -789,7 +824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -800,7 +835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>22</v>
       </c>
@@ -811,7 +846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -822,7 +857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -833,18 +868,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E14" s="6"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="20" spans="4:11">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E20" s="6"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
     </row>
   </sheetData>
@@ -866,15 +901,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
-    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" customWidth="1"/>
+    <col min="3" max="3" width="44.15234375" customWidth="1"/>
+    <col min="4" max="1024" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.25" customHeight="1">
+    <row r="1" spans="1:3" ht="16.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -885,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -896,7 +931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -907,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" customHeight="1">
+    <row r="4" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -918,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" customHeight="1">
+    <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -929,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1">
+    <row r="7" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -940,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19" customHeight="1">
+    <row r="8" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -951,8 +986,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -963,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -974,55 +1009,55 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
     </row>
   </sheetData>
@@ -1038,15 +1073,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.3046875" customWidth="1"/>
+    <col min="5" max="5" width="11.3828125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1063,8 +1102,60 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1081,20 +1172,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.5" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="43.1640625" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.15234375" customWidth="1"/>
+    <col min="3" max="3" width="25.3046875" customWidth="1"/>
+    <col min="4" max="4" width="54.4609375" customWidth="1"/>
+    <col min="5" max="5" width="27.84375" customWidth="1"/>
+    <col min="6" max="6" width="35.69140625" customWidth="1"/>
+    <col min="7" max="7" width="27.4609375" customWidth="1"/>
+    <col min="8" max="8" width="43.15234375" customWidth="1"/>
+    <col min="9" max="9" width="26.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -1108,15 +1199,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1136,19 +1227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.3046875" customWidth="1"/>
+    <col min="4" max="1022" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+    <row r="2" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+    <row r="3" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1274,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>

--- a/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
+++ b/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>comments</t>
   </si>
@@ -205,36 +205,6 @@
   </si>
   <si>
     <t>Enter the name of the veo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table </t>
-  </si>
-  <si>
-    <t xml:space="preserve">security </t>
-  </si>
-  <si>
-    <t xml:space="preserve">locked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">unverifiedUserCanCreate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">defaultAccessOnCreation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>"true"</t>
-  </si>
-  <si>
-    <t>"false"</t>
-  </si>
-  <si>
-    <t>"READ_ONLY"</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1046,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -1103,55 +1073,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
+++ b/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKichabi\app-designer\app\config\tables\geo_unit\forms\geo_unit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13277" yWindow="7183" windowWidth="25363" windowHeight="15823" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="13280" yWindow="7180" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>comments</t>
   </si>
@@ -205,12 +200,39 @@
   </si>
   <si>
     <t>Enter the name of the veo</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>READ_ONLY</t>
+  </si>
+  <si>
+    <t>locked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -286,7 +308,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,6 +330,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -724,25 +752,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="3" width="11.3046875" customWidth="1"/>
-    <col min="4" max="4" width="20.4609375" customWidth="1"/>
-    <col min="5" max="5" width="25.15234375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.4609375" customWidth="1"/>
-    <col min="9" max="9" width="14.3046875" customWidth="1"/>
+    <col min="7" max="8" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.3046875" customWidth="1"/>
-    <col min="12" max="1023" width="11.3046875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="1023" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -793,8 +821,11 @@
       <c r="G2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -804,8 +835,11 @@
       <c r="G3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="D4" t="s">
         <v>22</v>
       </c>
@@ -815,8 +849,11 @@
       <c r="G4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -826,8 +863,11 @@
       <c r="G5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -837,19 +877,22 @@
       <c r="G6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="E14" s="6"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11">
       <c r="E20" s="6"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11">
       <c r="D21" s="6"/>
     </row>
   </sheetData>
@@ -871,15 +914,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="25.15234375" customWidth="1"/>
-    <col min="3" max="3" width="44.15234375" customWidth="1"/>
-    <col min="4" max="1024" width="8.69140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.25" customHeight="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -890,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -901,7 +944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -912,7 +955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -923,7 +966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -934,7 +977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -945,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19" customHeight="1">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -956,8 +999,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -968,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -979,55 +1022,55 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="6"/>
     </row>
   </sheetData>
@@ -1046,16 +1089,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="24.3046875" customWidth="1"/>
-    <col min="5" max="5" width="11.3828125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1072,18 +1115,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1100,20 +1185,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.15234375" customWidth="1"/>
-    <col min="3" max="3" width="25.3046875" customWidth="1"/>
-    <col min="4" max="4" width="54.4609375" customWidth="1"/>
-    <col min="5" max="5" width="27.84375" customWidth="1"/>
-    <col min="6" max="6" width="35.69140625" customWidth="1"/>
-    <col min="7" max="7" width="27.4609375" customWidth="1"/>
-    <col min="8" max="8" width="43.15234375" customWidth="1"/>
-    <col min="9" max="9" width="26.15234375" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -1127,15 +1212,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1">
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
       <c r="A4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1159,15 +1244,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.3046875" customWidth="1"/>
-    <col min="4" max="1022" width="11.3046875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1178,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1287,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +1295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>21</v>
       </c>

--- a/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
+++ b/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="7180" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4280" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>comments</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>locked</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Enter the name of the region</t>
   </si>
 </sst>
 </file>
@@ -750,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -812,15 +818,19 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="D2" t="s">
+      <c r="A2" s="1"/>
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="L2" s="4"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -830,10 +840,10 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -844,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -858,10 +868,10 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -872,28 +882,42 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="E13" s="6"/>
+    <row r="7" spans="1:13">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="6"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="20" spans="4:11">
-      <c r="E20" s="6"/>
-      <c r="K20" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="E15" s="6"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1088,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
+++ b/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="15720" yWindow="6180" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>comments</t>
   </si>
@@ -100,51 +100,9 @@
     <t>village</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>merchandise</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Merchandise</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>male_female</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>subvillage</t>
   </si>
   <si>
-    <t>sector_type_list</t>
-  </si>
-  <si>
     <t>partition</t>
   </si>
   <si>
@@ -166,12 +124,6 @@
     <t>callback</t>
   </si>
   <si>
-    <t>true_false_unsure</t>
-  </si>
-  <si>
-    <t>Unsure</t>
-  </si>
-  <si>
     <t>geo_unit</t>
   </si>
   <si>
@@ -233,13 +185,64 @@
   </si>
   <si>
     <t>Enter the name of the region</t>
+  </si>
+  <si>
+    <t>display.prompt.text.sw</t>
+  </si>
+  <si>
+    <t>Wilaya</t>
+  </si>
+  <si>
+    <t>Kata</t>
+  </si>
+  <si>
+    <t>Kijiji</t>
+  </si>
+  <si>
+    <t>Kitongoji/Mtaa</t>
+  </si>
+  <si>
+    <t>Andika jina la Mtendaji Mhakiki/Msimamizi (wa biashara)</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>display.title.text.sw</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.sw</t>
+  </si>
+  <si>
+    <t>sw:Geo Unit</t>
+  </si>
+  <si>
+    <t>Mkoa</t>
+  </si>
+  <si>
+    <t>Kiswahili</t>
+  </si>
+  <si>
+    <t>Kiingereza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -280,6 +283,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -304,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,8 +325,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,15 +356,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -756,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -769,14 +787,14 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="1023" width="11.33203125" customWidth="1"/>
+    <col min="7" max="9" width="53.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="1024" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,72 +816,84 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="L2" s="4"/>
-      <c r="M2" t="b">
+      <c r="I2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="b">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="b">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -871,52 +901,61 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="b">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="b">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" t="b">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="E15" s="6"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="21" spans="4:11">
+      <c r="L15" s="8"/>
+    </row>
+    <row r="21" spans="4:12">
       <c r="E21" s="6"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="4:11">
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="4:12">
       <c r="D22" s="6"/>
     </row>
   </sheetData>
@@ -935,7 +974,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -958,94 +997,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" customHeight="1">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="19" customHeight="1"/>
     <row r="9" spans="1:3" ht="19" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1"/>
     <row r="13" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
@@ -1124,13 +1094,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1141,53 +1111,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1224,16 +1194,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1">
@@ -1262,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1273,10 +1243,13 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:6" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1286,24 +1259,33 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1311,20 +1293,45 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+    <row r="5" spans="1:6" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
+++ b/app/config/tables/geo_unit/forms/geo_unit/geo_unit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="6180" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>comments</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>display.locale.text.sw</t>
-  </si>
-  <si>
-    <t>sw:Geo Unit</t>
   </si>
   <si>
     <t>Mkoa</t>
@@ -776,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +848,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2"/>
       <c r="M2" s="4"/>
@@ -1234,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1301,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1320,7 +1317,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
@@ -1331,7 +1328,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
